--- a/_training/3_area_level_medium/4.1-raw__codebook.xlsx
+++ b/_training/3_area_level_medium/4.1-raw__codebook.xlsx
@@ -1,20 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\cubebuilder-dev\_training\3_area_level_medium\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE92ED1-D4EA-4A68-9BE7-53F88C7CA02C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="5205" yWindow="2730" windowWidth="21600" windowHeight="11235" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="by_dataset" r:id="rId3" sheetId="1"/>
-    <sheet name="by_iso2" r:id="rId4" sheetId="2"/>
-    <sheet name="by_var" r:id="rId5" sheetId="3"/>
+    <sheet name="by_dataset" sheetId="1" r:id="rId1"/>
+    <sheet name="by_iso2" sheetId="2" r:id="rId2"/>
+    <sheet name="by_var" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>dataset_id</t>
   </si>
@@ -40,9 +48,6 @@
     <t>3_area_level_medium</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>iso2</t>
   </si>
   <si>
@@ -95,25 +100,75 @@
   </si>
   <si>
     <t>LE_MEDIAN</t>
+  </si>
+  <si>
+    <t>Training dataset containing median life expectancy estimates for metropolitan areas in Latin America. This dataset demonstrates cube building with country-specific data sources and single variable processing. Data represents modeled estimates based on vital registration systems and demographic projections.</t>
+  </si>
+  <si>
+    <t>No stratification - area-level aggregated data only</t>
+  </si>
+  <si>
+    <t>Derived from vital registration systems and population cen</t>
+  </si>
+  <si>
+    <t>Population Data: Brazilian Institute of Geography and Statistics (IBGE) - Demographic Census and Population Projections. Mortality Data: Ministry of Health - Mortality Information System (SIM)</t>
+  </si>
+  <si>
+    <t>We acknowledge the Brazilian Institute of Geography and Statistics (IBGE) for providing population census and projection data, and the Ministry of Health for vital registration data through the Mortality Information System (SIM).</t>
+  </si>
+  <si>
+    <t>Population Data: National Administrative Department of Statistics (DANE) - National Population and Housing Census. Mortality Data: Ministry of Health and Social Protection - National Public Health Surveillance System (SIVIGILA)</t>
+  </si>
+  <si>
+    <t>We acknowledge the National Administrative Department of Statistics (DANE) for providing population census data, and the Ministry of Health and Social Protection for mortality surveillance data through SIVIGILA.</t>
+  </si>
+  <si>
+    <t>Population Data: National Institute of Statistics and Geography (INEGI) - Population and Housing Census. Mortality Data: Ministry of Health - General Directorate of Health Information (DGIS)</t>
+  </si>
+  <si>
+    <t>We acknowledge the National Institute of Statistics and Geography (INEGI) for providing population census data, and the Ministry of Health for mortality data through the General Directorate of Health Information (DGIS).</t>
+  </si>
+  <si>
+    <t>Life Expectancy Median</t>
+  </si>
+  <si>
+    <t>Median life expectancy at birth for urban populations, measured in years. This indicator captures the middle value of life expectancy estimates when all births in a given geographic area and time period are ranked from lowest to highest expected lifespan. Calculated using demographic life tables that incorporate age-specific mortality rates for the urban population.</t>
+  </si>
+  <si>
+    <t>Numeric</t>
+  </si>
+  <si>
+    <t>Years</t>
+  </si>
+  <si>
+    <t>Continuous numeric values representing years of expected life. Range typically 70-80 years for urban Latin American populations. Daily variations reflect updated mortality surveillance data and demographic adjustments.</t>
+  </si>
+  <si>
+    <t>Mortality</t>
+  </si>
+  <si>
+    <t>Life Expectancy</t>
+  </si>
+  <si>
+    <t>Continuous numeric values representing years of expected life. Range typically 70-80 years for urban Latin American populations. Daily variations reflect updated mortality surveillance data and demographic adjustments.-specific mortality rates for the urban population.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
   </fonts>
   <fills count="2">
@@ -121,7 +176,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -136,209 +191,545 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="33" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:H16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s" s="2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
+        <v>34</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="G1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="H1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="I1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s" s="2">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s">
-        <v>8</v>
+        <v>42</v>
+      </c>
+      <c r="J2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>